--- a/www/IndicatorsPerCountry/Serbia_GDPperCapita_TerritorialRef_2008_2012_CCode_688.xlsx
+++ b/www/IndicatorsPerCountry/Serbia_GDPperCapita_TerritorialRef_2008_2012_CCode_688.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Serbia_GDPperCapita_TerritorialRef_2008_2012_CCode_688.xlsx
+++ b/www/IndicatorsPerCountry/Serbia_GDPperCapita_TerritorialRef_2008_2012_CCode_688.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1234.421862</t>
-  </si>
-  <si>
-    <t>1408.828861</t>
-  </si>
-  <si>
-    <t>1344.534227</t>
-  </si>
-  <si>
-    <t>1563.509069</t>
-  </si>
-  <si>
-    <t>1477.332935</t>
-  </si>
-  <si>
-    <t>1888.015343</t>
-  </si>
-  <si>
-    <t>1814.636202</t>
-  </si>
-  <si>
-    <t>2316.492898</t>
-  </si>
-  <si>
-    <t>2361.283179</t>
-  </si>
-  <si>
-    <t>2429.374955</t>
-  </si>
-  <si>
-    <t>2540.773088</t>
-  </si>
-  <si>
-    <t>2828.6347</t>
-  </si>
-  <si>
-    <t>3107.734344</t>
-  </si>
-  <si>
-    <t>3147.765678</t>
-  </si>
-  <si>
-    <t>3392.673396</t>
-  </si>
-  <si>
-    <t>3426.207121</t>
-  </si>
-  <si>
-    <t>3464.521215</t>
-  </si>
-  <si>
-    <t>3834.612178</t>
-  </si>
-  <si>
-    <t>3923.821481</t>
-  </si>
-  <si>
-    <t>4256.336845</t>
-  </si>
-  <si>
-    <t>4414.707158</t>
-  </si>
-  <si>
-    <t>4624.240853</t>
-  </si>
-  <si>
-    <t>4981.309149</t>
-  </si>
-  <si>
-    <t>5086.152525</t>
-  </si>
-  <si>
-    <t>5312.842782</t>
-  </si>
-  <si>
-    <t>5707.26686</t>
-  </si>
-  <si>
-    <t>5963.887684</t>
-  </si>
-  <si>
-    <t>6430.288285</t>
-  </si>
-  <si>
-    <t>6459.347403</t>
-  </si>
-  <si>
-    <t>6545.645188</t>
-  </si>
-  <si>
-    <t>6663.723271</t>
-  </si>
-  <si>
-    <t>6479.274081</t>
-  </si>
-  <si>
-    <t>6548.52947</t>
-  </si>
-  <si>
-    <t>6521.118655</t>
-  </si>
-  <si>
-    <t>6746.243876</t>
-  </si>
-  <si>
-    <t>6635.859678</t>
-  </si>
-  <si>
-    <t>6542.40758</t>
-  </si>
-  <si>
-    <t>6682.208408</t>
-  </si>
-  <si>
-    <t>6118.57762529</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>4135.0143787</t>
-  </si>
-  <si>
-    <t>4242.52475255</t>
-  </si>
-  <si>
-    <t>4484.34866344</t>
-  </si>
-  <si>
-    <t>4690.62870196</t>
-  </si>
-  <si>
-    <t>5037.73522591</t>
-  </si>
-  <si>
-    <t>5072.99937249</t>
-  </si>
-  <si>
-    <t>4504.82344277</t>
-  </si>
-  <si>
-    <t>4743.57908524</t>
-  </si>
-  <si>
-    <t>4982.40263279</t>
-  </si>
-  <si>
-    <t>5194.76967956</t>
-  </si>
-  <si>
-    <t>5338.49283243</t>
-  </si>
-  <si>
-    <t>5801.83911631</t>
-  </si>
-  <si>
-    <t>6180.81061392</t>
-  </si>
-  <si>
-    <t>6536.90081357</t>
-  </si>
-  <si>
-    <t>7001.02077133</t>
-  </si>
-  <si>
-    <t>7421.08201761</t>
-  </si>
-  <si>
-    <t>7226.71902183</t>
-  </si>
-  <si>
-    <t>7337.15824773</t>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>2584</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>3147</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3885</t>
+  </si>
+  <si>
+    <t>3948</t>
+  </si>
+  <si>
+    <t>4038</t>
+  </si>
+  <si>
+    <t>4237</t>
+  </si>
+  <si>
+    <t>4713</t>
+  </si>
+  <si>
+    <t>5166</t>
+  </si>
+  <si>
+    <t>5231</t>
+  </si>
+  <si>
+    <t>5649</t>
+  </si>
+  <si>
+    <t>5703</t>
+  </si>
+  <si>
+    <t>5761</t>
+  </si>
+  <si>
+    <t>6379</t>
+  </si>
+  <si>
+    <t>6515</t>
+  </si>
+  <si>
+    <t>7084</t>
+  </si>
+  <si>
+    <t>7347</t>
+  </si>
+  <si>
+    <t>7716</t>
+  </si>
+  <si>
+    <t>8322</t>
+  </si>
+  <si>
+    <t>8498</t>
+  </si>
+  <si>
+    <t>8877</t>
+  </si>
+  <si>
+    <t>9529</t>
+  </si>
+  <si>
+    <t>9958</t>
+  </si>
+  <si>
+    <t>10772</t>
+  </si>
+  <si>
+    <t>10724</t>
+  </si>
+  <si>
+    <t>10888</t>
+  </si>
+  <si>
+    <t>10949</t>
+  </si>
+  <si>
+    <t>10707</t>
+  </si>
+  <si>
+    <t>10866</t>
+  </si>
+  <si>
+    <t>10839</t>
+  </si>
+  <si>
+    <t>11180</t>
+  </si>
+  <si>
+    <t>10973</t>
+  </si>
+  <si>
+    <t>10793</t>
+  </si>
+  <si>
+    <t>10963</t>
+  </si>
+  <si>
+    <t>9754</t>
+  </si>
+  <si>
+    <t>8858.00687718841</t>
+  </si>
+  <si>
+    <t>6567.66979131886</t>
+  </si>
+  <si>
+    <t>4673.64158257596</t>
+  </si>
+  <si>
+    <t>4910.81639358195</t>
+  </si>
+  <si>
+    <t>5325.48823239337</t>
+  </si>
+  <si>
+    <t>5710.196717778</t>
+  </si>
+  <si>
+    <t>6288.02412151558</t>
+  </si>
+  <si>
+    <t>6603.71117893823</t>
+  </si>
+  <si>
+    <t>5532.54132555933</t>
+  </si>
+  <si>
+    <t>6059.58302217881</t>
+  </si>
+  <si>
+    <t>6542.67954226357</t>
+  </si>
+  <si>
+    <t>7155.57619129481</t>
+  </si>
+  <si>
+    <t>7637.83224410049</t>
+  </si>
+  <si>
+    <t>8512.16789709297</t>
+  </si>
+  <si>
+    <t>9198.41447412235</t>
+  </si>
+  <si>
+    <t>9902.42608751295</t>
+  </si>
+  <si>
+    <t>10768.9423788207</t>
+  </si>
+  <si>
+    <t>11650.228005412</t>
+  </si>
+  <si>
+    <t>11576.5888058709</t>
+  </si>
+  <si>
+    <t>11963.5550659209</t>
+  </si>
+  <si>
+    <t>12463</t>
+  </si>
+  <si>
+    <t>12384</t>
+  </si>
+  <si>
+    <t>12764</t>
+  </si>
+  <si>
+    <t>12606</t>
+  </si>
+  <si>
+    <t>12765</t>
+  </si>
+  <si>
+    <t>13184</t>
   </si>
   <si>
     <t>Description</t>
@@ -1005,7 +1026,7 @@
         <v>1992.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1043,7 @@
         <v>1993.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1060,7 @@
         <v>1994.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1077,7 @@
         <v>1995.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1094,7 @@
         <v>1996.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1111,7 @@
         <v>1997.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1128,7 @@
         <v>1998.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1145,7 @@
         <v>1999.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1162,7 @@
         <v>2000.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1179,7 @@
         <v>2001.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1196,7 @@
         <v>2002.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1213,7 @@
         <v>2003.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1230,7 @@
         <v>2004.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1247,7 @@
         <v>2005.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1264,7 @@
         <v>2006.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1281,7 @@
         <v>2007.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1298,7 @@
         <v>2008.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1315,7 @@
         <v>2009.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1332,109 @@
         <v>2010.0</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1452,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
